--- a/MiLibro.xlsx
+++ b/MiLibro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Usando_git\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5DC39-F29F-41E2-8120-A32818F8CBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87138553-22A5-4EA1-8F70-4868F8362327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,10 +61,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +384,7 @@
   <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +393,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -392,7 +401,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -400,7 +409,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -408,7 +417,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -416,7 +425,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -424,7 +433,7 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -432,7 +441,7 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -440,7 +449,7 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -448,7 +457,7 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -456,11 +465,12 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>